--- a/docs/assets/disciplinas/LOQ4230.xlsx
+++ b/docs/assets/disciplinas/LOQ4230.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer oportunidade de aplicação dos conhecimentos fundamentais da Engenharia de Produção nos diversos sistemas de produção da indústria. Complementação da formação geral curricular. Adaptação psicológica e social do estudante à sua futura atividade profissional.</t>
+    <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Plano de Trabalho específico. Realização do Estágio. Relatório final e/ou parciais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Participação do aluno em processo seletivo de empresas ou no setor acadêmico. Estágio realizado sob a supervisão da Escola de Engenharia de Lorena, através do Departamento em Engenharia Química. O conteúdo será estabelecido individualmente no Plano de Trabalho entre o Supervisor do Estágio e o professor orientador, desde que relacionado com as áreas afins da Engenharia de Produção. Apresentação de relatório final e/ou relatórios parciais sobre as atividades desenvolvidas no estágio.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo professor orientador do estágio.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>A ser definida com o orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -568,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,34 +690,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -740,221 +734,210 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="30" customHeight="1">
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4230.xlsx
+++ b/docs/assets/disciplinas/LOQ4230.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer oportunidade de aplicação dos conhecimentos fundamentais da Engenharia de Produção nos diversos sistemas de produção da indústria. Complementação da formação geral curricular. Adaptação psicológica e social do estudante à sua futura atividade profissional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To provide an opportunity to apply the fundamental knowledge of Industrial Engineering in the various production systems of the industry. Complementation of general curricular training. Psychological and social adaptation of the student to his future professional activity</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840560 - Marco Antonio Carvalho Pereira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To provide an opportunity to apply the fundamental knowledge of Industrial Engineering in the various production systems of the industry. Complementation of general curricular training. Psychological and social adaptation of the student to his future professional activity</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Plano de Trabalho específico. Realização do Estágio. Relatório final e/ou parciais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Participação do aluno em processo seletivo de empresas ou no setor acadêmico. Estágio realizado sob a supervisão da Escola de Engenharia de Lorena, através do Departamento em Engenharia Química. O conteúdo será estabelecido individualmente no Plano de Trabalho entre o Supervisor do Estágio e o professor orientador, desde que relacionado com as áreas afins da Engenharia de Produção. Apresentação de relatório final e/ou relatórios parciais sobre as atividades desenvolvidas no estágio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+    <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo professor orientador do estágio.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo professor orientador do estágio.</t>
+    <t>Não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não será oferecida recuperação.</t>
+    <t>A ser definida com o orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -559,13 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -690,37 +699,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -734,210 +740,221 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="30" customHeight="1">
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
